--- a/【直通硅谷】提高班+基础班OA题目清单.xlsx
+++ b/【直通硅谷】提高班+基础班OA题目清单.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baby/Desktop/LeetCode/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BE5200-B9CC-BF49-9DFD-88B35AB5F7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView xWindow="9060" yWindow="7420" windowWidth="29340" windowHeight="20000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="提高班" sheetId="1" r:id="rId1"/>
@@ -762,18 +768,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -784,157 +784,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -943,192 +799,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1210,253 +892,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1470,7 +910,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1479,23 +919,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1503,62 +931,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1816,475 +1218,473 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="6"/>
-    <col min="2" max="2" width="30.4444444444444" style="7" customWidth="1"/>
-    <col min="3" max="5" width="34.4444444444444" style="7" customWidth="1"/>
-    <col min="6" max="6" width="34.4444444444444" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="6"/>
+    <col min="1" max="1" width="8.83203125" style="6"/>
+    <col min="2" max="2" width="30.5" style="7" customWidth="1"/>
+    <col min="3" max="5" width="34.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="34.5" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A3" s="14">
+    <row r="3" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A4" s="14">
+    <row r="4" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A5" s="14">
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A6" s="14">
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A7" s="14">
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A8" s="14">
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A9" s="14">
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A10" s="14">
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A11" s="14">
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A12" s="14">
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A13" s="14">
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A14" s="14">
+      <c r="E13" s="9"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A15" s="14">
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A16" s="14">
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="6"/>
-    <col min="2" max="2" width="30.4444444444444" style="7" customWidth="1"/>
-    <col min="3" max="5" width="34.4444444444444" style="7" customWidth="1"/>
-    <col min="6" max="6" width="34.4444444444444" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="6"/>
+    <col min="1" max="1" width="8.83203125" style="6"/>
+    <col min="2" max="2" width="30.5" style="7" customWidth="1"/>
+    <col min="3" max="5" width="34.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="34.5" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A3" s="14">
+    <row r="3" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A4" s="14">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A5" s="14">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A6" s="14">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A7" s="14">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" ht="30.6" customHeight="1" spans="1:6">
-      <c r="A8" s="14">
+    <row r="8" spans="1:6" ht="30.5" customHeight="1">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2293,297 +1693,293 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="6"/>
-    <col min="2" max="2" width="30.4444444444444" style="7" customWidth="1"/>
-    <col min="3" max="5" width="34.4444444444444" style="7" customWidth="1"/>
-    <col min="6" max="6" width="35.1111111111111" style="6" customWidth="1"/>
-    <col min="7" max="11" width="32.1111111111111" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.88888888888889" style="6"/>
+    <col min="1" max="1" width="8.83203125" style="6"/>
+    <col min="2" max="2" width="30.5" style="7" customWidth="1"/>
+    <col min="3" max="5" width="34.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" style="6" customWidth="1"/>
+    <col min="7" max="11" width="32.1640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" ht="30.6" customHeight="1" spans="1:11">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" ht="30.5" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" ht="30.6" customHeight="1" spans="1:11">
-      <c r="A3" s="10">
+    <row r="3" spans="1:11" ht="30.5" customHeight="1">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" ht="30.6" customHeight="1" spans="1:11">
-      <c r="A4" s="10">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="30.5" customHeight="1">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" ht="30.6" customHeight="1" spans="1:11">
-      <c r="A5" s="10">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="30.5" customHeight="1">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" ht="30.6" customHeight="1" spans="1:11">
-      <c r="A6" s="10">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="30.5" customHeight="1">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" ht="30.6" customHeight="1" spans="1:11">
-      <c r="A7" s="10">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="30.5" customHeight="1">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" ht="30.6" customHeight="1" spans="1:11">
-      <c r="A8" s="10">
+    <row r="8" spans="1:11" ht="30.5" customHeight="1">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="1"/>
-    <col min="2" max="5" width="17.1111111111111" style="2" customWidth="1"/>
-    <col min="6" max="15" width="17.1111111111111" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="5" width="17.1640625" style="2" customWidth="1"/>
+    <col min="6" max="15" width="17.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:15">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+    </row>
+    <row r="2" spans="1:15" ht="16">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2630,7 +2026,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="55.2" spans="1:15">
+    <row r="3" spans="1:15" ht="64">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2669,7 +2065,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="31.2" spans="1:15">
+    <row r="4" spans="1:15" ht="34">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2706,7 +2102,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="41.4" spans="1:15">
+    <row r="5" spans="1:15" ht="48">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2751,11 +2147,11 @@
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="27.6" spans="1:15">
-      <c r="A6" s="3">
+    <row r="6" spans="1:15" ht="32">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="16" t="s">
         <v>157</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2798,9 +2194,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="41.4" spans="1:15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:15" ht="48">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="5" t="s">
         <v>170</v>
       </c>
@@ -2841,9 +2237,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="27.6" spans="1:15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+    <row r="8" spans="1:15" ht="32">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="5" t="s">
         <v>180</v>
       </c>
@@ -2880,7 +2276,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" ht="55.2" spans="1:15">
+    <row r="9" spans="1:15" ht="64">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -2925,7 +2321,7 @@
       </c>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" ht="27.6" spans="1:15">
+    <row r="10" spans="1:15" ht="32">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -2948,7 +2344,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" ht="27.6" spans="1:15">
+    <row r="11" spans="1:15" ht="32">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -2979,7 +2375,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" ht="41.4" spans="1:15">
+    <row r="12" spans="1:15" ht="48">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -3020,7 +2416,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" ht="41.4" spans="1:15">
+    <row r="13" spans="1:15" ht="48">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -3061,7 +2457,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" ht="41.4" spans="1:15">
+    <row r="14" spans="1:15" ht="32">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -3092,7 +2488,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" ht="27.6" spans="1:15">
+    <row r="15" spans="1:15" ht="32">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -3131,7 +2527,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" ht="27.6" spans="1:15">
+    <row r="16" spans="1:15" ht="32">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -3167,6 +2563,5 @@
     <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/【直通硅谷】提高班+基础班OA题目清单.xlsx
+++ b/【直通硅谷】提高班+基础班OA题目清单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baby/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BE5200-B9CC-BF49-9DFD-88B35AB5F7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F1970C-51E1-424B-8E81-88404188E3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="7420" windowWidth="29340" windowHeight="20000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9400" yWindow="6660" windowWidth="29000" windowHeight="19900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="提高班" sheetId="1" r:id="rId1"/>
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1589,7 +1589,7 @@
       <c r="D3" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="17" t="s">
         <v>67</v>
       </c>
       <c r="F3" s="9"/>
@@ -1607,7 +1607,7 @@
       <c r="D4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="17" t="s">
         <v>71</v>
       </c>
       <c r="F4" s="9"/>
@@ -1625,7 +1625,7 @@
       <c r="D5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="17" t="s">
         <v>75</v>
       </c>
       <c r="F5" s="9"/>
@@ -1661,7 +1661,7 @@
       <c r="D7" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="17" t="s">
         <v>83</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -1678,10 +1678,10 @@
       <c r="C8" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="17" t="s">
         <v>88</v>
       </c>
       <c r="F8" s="9" t="s">

--- a/【直通硅谷】提高班+基础班OA题目清单.xlsx
+++ b/【直通硅谷】提高班+基础班OA题目清单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baby/Desktop/LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allenbarry/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F1970C-51E1-424B-8E81-88404188E3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32322B64-738F-A541-9F33-BFB4A3EDD505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9400" yWindow="6660" windowWidth="29000" windowHeight="19900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="提高班" sheetId="1" r:id="rId1"/>
@@ -931,6 +931,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -944,9 +947,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1227,7 +1227,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C1048576"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1240,14 +1240,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="30.5" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -1533,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1547,14 +1547,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="30.5" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -1583,13 +1583,13 @@
       <c r="B3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="F3" s="9"/>
@@ -1601,13 +1601,13 @@
       <c r="B4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="F4" s="9"/>
@@ -1619,13 +1619,13 @@
       <c r="B5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="F5" s="9"/>
@@ -1637,7 +1637,7 @@
       <c r="B6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="12" t="s">
         <v>77</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1655,16 +1655,16 @@
       <c r="B7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="12" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1675,16 +1675,16 @@
       <c r="B8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="12" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1700,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1715,19 +1715,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="30.5" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -1771,7 +1771,7 @@
       <c r="B3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>97</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -1798,7 +1798,7 @@
       <c r="B4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -1829,7 +1829,7 @@
       <c r="B5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="12" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -1854,7 +1854,7 @@
       <c r="B6" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="12" t="s">
         <v>113</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1879,7 +1879,7 @@
       <c r="B7" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="12" t="s">
         <v>118</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -1961,23 +1961,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:15" ht="16">
       <c r="A2" s="4" t="s">
@@ -2148,10 +2148,10 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="32">
-      <c r="A6" s="16">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>157</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2195,8 +2195,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="48">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="5" t="s">
         <v>170</v>
       </c>
@@ -2238,8 +2238,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="32">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="5" t="s">
         <v>180</v>
       </c>

--- a/【直通硅谷】提高班+基础班OA题目清单.xlsx
+++ b/【直通硅谷】提高班+基础班OA题目清单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allenbarry/Desktop/LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baby/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32322B64-738F-A541-9F33-BFB4A3EDD505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC47C32B-3A2D-2A44-A11F-ECEBA7E763A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="提高班" sheetId="1" r:id="rId1"/>
@@ -1701,7 +1701,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1914,7 +1914,7 @@
       <c r="B8" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="12" t="s">
         <v>127</v>
       </c>
       <c r="D8" s="9" t="s">

--- a/【直通硅谷】提高班+基础班OA题目清单.xlsx
+++ b/【直通硅谷】提高班+基础班OA题目清单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baby/Desktop/LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allenbarry/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC47C32B-3A2D-2A44-A11F-ECEBA7E763A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD0546C-28C5-6E43-A939-290DE367C173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="提高班" sheetId="1" r:id="rId1"/>
@@ -790,7 +790,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -806,6 +806,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -947,6 +953,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1701,7 +1710,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1774,7 +1783,7 @@
       <c r="C3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>98</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -1801,7 +1810,7 @@
       <c r="C4" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="18" t="s">
         <v>104</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -1832,7 +1841,7 @@
       <c r="C5" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -1857,7 +1866,7 @@
       <c r="C6" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="12" t="s">
         <v>114</v>
       </c>
       <c r="E6" s="9" t="s">

--- a/【直通硅谷】提高班+基础班OA题目清单.xlsx
+++ b/【直通硅谷】提高班+基础班OA题目清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allenbarry/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD0546C-28C5-6E43-A939-290DE367C173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E6341C-C453-FF46-9960-C8D64AF6BDA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1710,7 +1710,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1926,7 +1926,7 @@
       <c r="C8" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="12" t="s">
         <v>128</v>
       </c>
       <c r="E8" s="9" t="s">

--- a/【直通硅谷】提高班+基础班OA题目清单.xlsx
+++ b/【直通硅谷】提高班+基础班OA题目清单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allenbarry/Desktop/LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baby/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E6341C-C453-FF46-9960-C8D64AF6BDA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF7B298-EFF5-1A4B-A8F4-80E92A04697C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="提高班" sheetId="1" r:id="rId1"/>
@@ -940,6 +940,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -953,9 +956,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1249,14 +1249,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="30.5" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -1556,14 +1556,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="30.5" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -1710,7 +1710,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1724,19 +1724,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="30.5" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -1810,7 +1810,7 @@
       <c r="C4" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="13" t="s">
         <v>104</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -1970,23 +1970,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" ht="16">
       <c r="A2" s="4" t="s">
@@ -2157,10 +2157,10 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="32">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>157</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2204,8 +2204,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="48">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="5" t="s">
         <v>170</v>
       </c>
@@ -2247,8 +2247,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="32">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5" t="s">
         <v>180</v>
       </c>

--- a/【直通硅谷】提高班+基础班OA题目清单.xlsx
+++ b/【直通硅谷】提高班+基础班OA题目清单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allenbarry/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E6341C-C453-FF46-9960-C8D64AF6BDA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71F73E0-7DFF-5844-BC7C-E1286B7AB30C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="提高班" sheetId="1" r:id="rId1"/>
@@ -790,7 +790,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -812,6 +812,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -940,6 +946,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,7 +964,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1249,14 +1258,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="30.5" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -1556,14 +1565,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="30.5" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -1710,7 +1719,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1724,19 +1733,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="30.5" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -1786,7 +1795,7 @@
       <c r="D3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>99</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -1810,10 +1819,10 @@
       <c r="C4" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="19" t="s">
         <v>105</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -1844,7 +1853,7 @@
       <c r="D5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="12" t="s">
         <v>110</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -1869,7 +1878,7 @@
       <c r="D6" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="12" t="s">
         <v>115</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -1970,23 +1979,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" ht="16">
       <c r="A2" s="4" t="s">
@@ -2157,10 +2166,10 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="32">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>157</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2204,8 +2213,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="48">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="5" t="s">
         <v>170</v>
       </c>
@@ -2247,8 +2256,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="32">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5" t="s">
         <v>180</v>
       </c>

--- a/【直通硅谷】提高班+基础班OA题目清单.xlsx
+++ b/【直通硅谷】提高班+基础班OA题目清单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allenbarry/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71F73E0-7DFF-5844-BC7C-E1286B7AB30C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F49A0BB-528A-5F4D-9157-48416F3D7114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="提高班" sheetId="1" r:id="rId1"/>
@@ -949,6 +949,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -962,9 +965,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1258,14 +1258,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="30.5" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -1565,14 +1565,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="30.5" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -1718,7 +1718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1733,19 +1733,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" ht="30.5" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -1822,7 +1822,7 @@
       <c r="D4" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="14" t="s">
         <v>105</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -1903,7 +1903,7 @@
       <c r="D7" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="12" t="s">
         <v>120</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -1979,23 +1979,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="1:15" ht="16">
       <c r="A2" s="4" t="s">
@@ -2166,10 +2166,10 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="32">
-      <c r="A6" s="18">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>157</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2213,8 +2213,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="48">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="5" t="s">
         <v>170</v>
       </c>
@@ -2256,8 +2256,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="32">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5" t="s">
         <v>180</v>
       </c>

--- a/【直通硅谷】提高班+基础班OA题目清单.xlsx
+++ b/【直通硅谷】提高班+基础班OA题目清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allenbarry/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F49A0BB-528A-5F4D-9157-48416F3D7114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242AEAF6-DD69-924C-AD72-24950FC85F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1718,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/【直通硅谷】提高班+基础班OA题目清单.xlsx
+++ b/【直通硅谷】提高班+基础班OA题目清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allenbarry/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242AEAF6-DD69-924C-AD72-24950FC85F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8818F578-64EC-E14F-8CFD-80BCA21E661D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1718,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1798,10 +1798,10 @@
       <c r="E3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="12" t="s">
         <v>101</v>
       </c>
       <c r="H3" s="9"/>
@@ -1825,10 +1825,10 @@
       <c r="E4" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="12" t="s">
         <v>107</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -1906,10 +1906,10 @@
       <c r="E7" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="12" t="s">
         <v>122</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -1938,13 +1938,13 @@
       <c r="D8" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="14" t="s">
         <v>131</v>
       </c>
       <c r="H8" s="9" t="s">

--- a/【直通硅谷】提高班+基础班OA题目清单.xlsx
+++ b/【直通硅谷】提高班+基础班OA题目清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allenbarry/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8818F578-64EC-E14F-8CFD-80BCA21E661D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C590FA32-A505-BC4C-91AB-2FBE1168CA21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -769,7 +769,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,6 +788,13 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -908,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -965,6 +972,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1718,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1831,10 +1841,10 @@
       <c r="G4" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="20" t="s">
         <v>109</v>
       </c>
       <c r="J4" s="9"/>
@@ -1912,7 +1922,7 @@
       <c r="G7" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="20" t="s">
         <v>123</v>
       </c>
       <c r="I7" s="9" t="s">
@@ -1947,7 +1957,7 @@
       <c r="G8" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="20" t="s">
         <v>132</v>
       </c>
       <c r="I8" s="9"/>

--- a/【直通硅谷】提高班+基础班OA题目清单.xlsx
+++ b/【直通硅谷】提高班+基础班OA题目清单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allenbarry/Desktop/LeetCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baby/Desktop/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C590FA32-A505-BC4C-91AB-2FBE1168CA21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D53893-D10D-6943-A40A-FA33CE55B6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19380" yWindow="2700" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="提高班" sheetId="1" r:id="rId1"/>
@@ -959,6 +959,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,9 +975,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1268,14 +1268,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="30.5" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -1575,14 +1575,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="30.5" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -1728,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1743,19 +1743,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" ht="30.5" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -1844,7 +1844,7 @@
       <c r="H4" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="15" t="s">
         <v>109</v>
       </c>
       <c r="J4" s="9"/>
@@ -1922,7 +1922,7 @@
       <c r="G7" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="15" t="s">
         <v>123</v>
       </c>
       <c r="I7" s="9" t="s">
@@ -1957,7 +1957,7 @@
       <c r="G8" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="15" t="s">
         <v>132</v>
       </c>
       <c r="I8" s="9"/>
@@ -1989,23 +1989,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
     </row>
     <row r="2" spans="1:15" ht="16">
       <c r="A2" s="4" t="s">
@@ -2176,10 +2176,10 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" ht="32">
-      <c r="A6" s="19">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>157</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2223,8 +2223,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="48">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="5" t="s">
         <v>170</v>
       </c>
@@ -2266,8 +2266,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="32">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="5" t="s">
         <v>180</v>
       </c>
